--- a/08_UK_Data/02_Output/lca_model_summary.xlsx
+++ b/08_UK_Data/02_Output/lca_model_summary.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>-13595.05229485317</v>
+        <v>-14400.73170010763</v>
       </c>
       <c r="C2">
-        <v>28413.40406725023</v>
+        <v>30035.40918737522</v>
       </c>
       <c r="D2">
-        <v>27554.10458970633</v>
+        <v>29165.46340021527</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>-13437.72328256334</v>
+        <v>-14244.73077293404</v>
       </c>
       <c r="C3">
-        <v>28508.7530104188</v>
+        <v>30136.98256938385</v>
       </c>
       <c r="D3">
-        <v>27361.44656512667</v>
+        <v>28975.46154586809</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>-13304.34336606771</v>
+        <v>-14106.66270581043</v>
       </c>
       <c r="C4">
-        <v>28652.00014517577</v>
+        <v>30274.42167149243</v>
       </c>
       <c r="D4">
-        <v>27216.68673213541</v>
+        <v>28821.32541162087</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>-13189.59553735604</v>
+        <v>-13994.28327716091</v>
       </c>
       <c r="C5">
-        <v>28832.51145550066</v>
+        <v>30463.2380505492</v>
       </c>
       <c r="D5">
-        <v>27109.19107471208</v>
+        <v>28718.56655432183</v>
       </c>
     </row>
   </sheetData>
